--- a/biology/Zoologie/Grallaire_d’Anzoátegui/Grallaire_d’Anzoátegui.xlsx
+++ b/biology/Zoologie/Grallaire_d’Anzoátegui/Grallaire_d’Anzoátegui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grallaire_d%E2%80%99Anzo%C3%A1tegui</t>
+          <t>Grallaire_d’Anzoátegui</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grallaire d'Anzoátegui (Grallaricula cumanensis) est une espèce d'oiseaux de la famille des Grallariidae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grallaire_d%E2%80%99Anzo%C3%A1tegui</t>
+          <t>Grallaire_d’Anzoátegui</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique aux montagnes du Nord-Est du Venezuela. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grallaire_d%E2%80%99Anzo%C3%A1tegui</t>
+          <t>Grallaire_d’Anzoátegui</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vit dans la forêt tropicale humide de montagne entre 600 et 1 850 m d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit dans la forêt tropicale humide de montagne entre 600 et 1 850 m d'altitude.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grallaire_d%E2%80%99Anzo%C3%A1tegui</t>
+          <t>Grallaire_d’Anzoátegui</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021) :
 sous-espèce Grallaricula cumanensis cumanensis Hartert, E, 1900
 sous-espèce Grallaricula cumanensis pariae Phelps &amp; Phelps Jr, 1949</t>
         </is>
